--- a/people.xlsx
+++ b/people.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">ypddjuio@yomail.info</t>
   </si>
   <si>
-    <t xml:space="preserve">meditation</t>
+    <t xml:space="preserve">meditación</t>
   </si>
   <si>
     <t xml:space="preserve">Marry</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">pythonprocourse2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucrania</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -104,6 +107,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
@@ -227,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +295,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,13 +319,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.15"/>
@@ -376,7 +390,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -421,6 +435,9 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T13" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
